--- a/riskmanagement_project/STOCK_RESULTS/AAPL_ticker_data.xlsx
+++ b/riskmanagement_project/STOCK_RESULTS/AAPL_ticker_data.xlsx
@@ -532,7 +532,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>189.02395629882812</t>
+          <t>189.0239715576172</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>190.30767822265625</t>
+          <t>190.3076629638672</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>188.50648498535156</t>
+          <t>188.50650024414062</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>193.7607879638672</t>
+          <t>193.76077270507812</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>196.9949188232422</t>
+          <t>196.99490356445312</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>197.14419555664062</t>
+          <t>197.14418029785156</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>194.9350128173828</t>
+          <t>194.93499755859375</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>195.97988891601562</t>
+          <t>195.9799041748047</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>193.73089599609375</t>
+          <t>193.7308807373047</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>184.73497009277344</t>
+          <t>184.7349853515625</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>183.35174560546875</t>
+          <t>183.3517608642578</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>181.02316284179688</t>
+          <t>181.02317810058594</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>180.29672241210938</t>
+          <t>180.2967071533203</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>185.28231811523438</t>
+          <t>185.2823028564453</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>184.68521118164062</t>
+          <t>184.68519592285156</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>185.01361083984375</t>
+          <t>185.0135955810547</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>181.78941345214844</t>
+          <t>181.78939819335938</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1556,7 +1556,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>187.7104034423828</t>
+          <t>187.71041870117188</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>193.55178833007812</t>
+          <t>193.55177307128906</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>187.123291015625</t>
+          <t>187.12327575683594</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>186.76504516601562</t>
+          <t>186.76502990722656</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>188.48660278320312</t>
+          <t>188.4866180419922</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>188.1691436767578</t>
+          <t>188.16912841796875</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2324,7 +2324,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>183.7052764892578</t>
+          <t>183.70529174804688</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>180.50686645507812</t>
+          <t>180.50685119628906</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>180.7659149169922</t>
+          <t>180.76593017578125</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>180.09832763671875</t>
+          <t>180.0983428955078</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2516,7 +2516,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>179.0122833251953</t>
+          <t>179.01226806640625</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>174.4687042236328</t>
+          <t>174.46871948242188</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>169.5066680908203</t>
+          <t>169.50665283203125</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>168.3907012939453</t>
+          <t>168.39068603515625</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>170.11444091796875</t>
+          <t>170.1144561767578</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>171.99765014648438</t>
+          <t>171.9976348876953</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>173.0936737060547</t>
+          <t>173.09368896484375</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>178.02584838867188</t>
+          <t>178.0258331298828</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2964,7 +2964,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>170.7521514892578</t>
+          <t>170.75213623046875</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>169.09815979003906</t>
+          <t>169.09814453125</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3092,7 +3092,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>172.68515014648438</t>
+          <t>172.68516540527344</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>169.4169921875</t>
+          <t>169.41697692871094</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>168.23126220703125</t>
+          <t>168.2312774658203</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>168.21136474609375</t>
+          <t>168.2113494873047</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>168.96859741210938</t>
+          <t>168.96861267089844</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>169.0582733154297</t>
+          <t>169.05828857421875</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>167.1750946044922</t>
+          <t>167.17510986328125</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>168.7693328857422</t>
+          <t>168.76934814453125</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3572,7 +3572,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>166.43775939941406</t>
+          <t>166.437744140625</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>165.24208068847656</t>
+          <t>165.24209594726562</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3668,7 +3668,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>166.29824829101562</t>
+          <t>166.2982635498047</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>168.41062927246094</t>
+          <t>168.41064453125</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>172.40615844726562</t>
+          <t>172.4061737060547</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>181.74237060546875</t>
+          <t>181.7423858642578</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>183.90457153320312</t>
+          <t>183.9045867919922</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>182.63742065429688</t>
+          <t>182.63743591308594</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>185.8601531982422</t>
+          <t>185.86013793945312</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4244,7 +4244,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>189.4420623779297</t>
+          <t>189.44204711914062</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>190.46974182128906</t>
+          <t>190.4697265625</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4436,7 +4436,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>189.56179809570312</t>
+          <t>189.56178283691406</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4532,7 +4532,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>191.8166961669922</t>
+          <t>191.81668090820312</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>193.59266662597656</t>
+          <t>193.59268188476562</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>194.04165649414062</t>
+          <t>194.0416717529297</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>196.4462432861328</t>
+          <t>196.44622802734375</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>209.20741271972656</t>
+          <t>209.2073974609375</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>207.67086791992188</t>
+          <t>207.67088317871094</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5364,7 +5364,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>232.4548797607422</t>
+          <t>232.45489501953125</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5492,7 +5492,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>234.29075622558594</t>
+          <t>234.29074096679688</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5556,7 +5556,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>223.67471313476562</t>
+          <t>223.6747283935547</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>218.04742431640625</t>
+          <t>218.0474395751953</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5908,7 +5908,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>219.3644561767578</t>
+          <t>219.36447143554688</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>206.76292419433594</t>
+          <t>206.762939453125</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
